--- a/src/test/java/com/eBanking/Testdata/Customerdata.xlsx
+++ b/src/test/java/com/eBanking/Testdata/Customerdata.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24923"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="55" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D00008D-50AA-45C8-9AFC-C8C6463D39DE}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8f5eb4e0d3b59b1d/Documents/Work Documents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{76AE9580-0A5D-433E-BAB9-63118EFE0AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Custormer Name</t>
   </si>
@@ -52,9 +55,6 @@
     <t>Phone</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
@@ -76,9 +76,6 @@
     <t>MD</t>
   </si>
   <si>
-    <t>sab@gmail.com</t>
-  </si>
-  <si>
     <t>sab1</t>
   </si>
   <si>
@@ -100,9 +97,6 @@
     <t>CA</t>
   </si>
   <si>
-    <t>aji@gmail.com</t>
-  </si>
-  <si>
     <t>aji1</t>
   </si>
   <si>
@@ -121,9 +115,6 @@
     <t>Texas</t>
   </si>
   <si>
-    <t>ruz@gmail.com</t>
-  </si>
-  <si>
     <t>ruz1</t>
   </si>
   <si>
@@ -140,9 +131,6 @@
   </si>
   <si>
     <t>Tamil Nadu</t>
-  </si>
-  <si>
-    <t>sabr@gmail.com</t>
   </si>
   <si>
     <t>sabri12</t>
@@ -152,18 +140,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -203,21 +183,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -530,34 +506,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13" style="6" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" customWidth="1"/>
+    <col min="3" max="3" width="13" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" customWidth="1"/>
+    <col min="7" max="7" width="11.26953125" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -578,28 +553,25 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
       </c>
       <c r="G2">
         <v>210300</v>
@@ -607,31 +579,28 @@
       <c r="H2">
         <v>1234567890</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
+      <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
       </c>
       <c r="G3">
         <v>210310</v>
@@ -639,31 +608,28 @@
       <c r="H3">
         <v>1234987612</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J3" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
+      <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="F4" t="s">
         <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
       </c>
       <c r="G4">
         <v>213000</v>
@@ -671,31 +637,28 @@
       <c r="H4">
         <v>1235674123</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="J4" t="s">
+      <c r="E5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
+      <c r="F5" t="s">
         <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>37</v>
       </c>
       <c r="G5">
         <v>682006</v>
@@ -703,20 +666,11 @@
       <c r="H5">
         <v>1234890789</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" t="s">
-        <v>39</v>
+      <c r="I5" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{9383B3A5-51BB-4E0B-9537-4DCC55008DE3}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{1EF6E044-9AF3-4553-9113-00B4C4E87C52}"/>
-    <hyperlink ref="I4" r:id="rId3" xr:uid="{CE93D76B-5C3A-4AE4-B325-120EFE64A275}"/>
-    <hyperlink ref="I5" r:id="rId4" xr:uid="{B674F102-47A0-4C2C-A254-050778AB80A8}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/java/com/eBanking/Testdata/Customerdata.xlsx
+++ b/src/test/java/com/eBanking/Testdata/Customerdata.xlsx
@@ -1,27 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25003"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8f5eb4e0d3b59b1d/Documents/Work Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{76AE9580-0A5D-433E-BAB9-63118EFE0AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="14_{76AE9580-0A5D-433E-BAB9-63118EFE0AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83FAC822-C365-4CD1-BA65-952F0A953FBA}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Custormer Name</t>
   </si>
@@ -56,6 +59,9 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>cust id</t>
   </si>
   <si>
     <t>Sabreen</t>
@@ -140,7 +146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,12 +192,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,26 +513,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
     <col min="3" max="3" width="13" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" customWidth="1"/>
-    <col min="5" max="5" width="11.1796875" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" customWidth="1"/>
-    <col min="7" max="7" width="11.26953125" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,25 +560,28 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2">
         <v>210300</v>
@@ -580,27 +590,28 @@
         <v>1234567890</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3">
         <v>210310</v>
@@ -609,27 +620,27 @@
         <v>1234987612</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4">
         <v>213000</v>
@@ -638,27 +649,27 @@
         <v>1235674123</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G5">
         <v>682006</v>
@@ -667,7 +678,7 @@
         <v>1234890789</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
